--- a/przykladowy_excel.xlsx
+++ b/przykladowy_excel.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Metoda-Hellwiga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C4039D-4A41-403F-A106-4EB9D7323077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766BDED4-20DD-48A6-B991-BFA58E6A06E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4770" yWindow="360" windowWidth="23340" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Integral_Capacity_Results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>y</t>
   </si>
@@ -40,111 +39,12 @@
   <si>
     <t>x5</t>
   </si>
-  <si>
-    <t>Combination</t>
-  </si>
-  <si>
-    <t>Integral_Capacity</t>
-  </si>
-  <si>
-    <t>('X1',)</t>
-  </si>
-  <si>
-    <t>('X2',)</t>
-  </si>
-  <si>
-    <t>('X3',)</t>
-  </si>
-  <si>
-    <t>('X4',)</t>
-  </si>
-  <si>
-    <t>('X5',)</t>
-  </si>
-  <si>
-    <t>('X1', 'X2')</t>
-  </si>
-  <si>
-    <t>('X1', 'X3')</t>
-  </si>
-  <si>
-    <t>('X1', 'X4')</t>
-  </si>
-  <si>
-    <t>('X1', 'X5')</t>
-  </si>
-  <si>
-    <t>('X2', 'X3')</t>
-  </si>
-  <si>
-    <t>('X2', 'X4')</t>
-  </si>
-  <si>
-    <t>('X2', 'X5')</t>
-  </si>
-  <si>
-    <t>('X3', 'X4')</t>
-  </si>
-  <si>
-    <t>('X3', 'X5')</t>
-  </si>
-  <si>
-    <t>('X4', 'X5')</t>
-  </si>
-  <si>
-    <t>('X1', 'X2', 'X3')</t>
-  </si>
-  <si>
-    <t>('X1', 'X2', 'X4')</t>
-  </si>
-  <si>
-    <t>('X1', 'X2', 'X5')</t>
-  </si>
-  <si>
-    <t>('X1', 'X3', 'X4')</t>
-  </si>
-  <si>
-    <t>('X1', 'X3', 'X5')</t>
-  </si>
-  <si>
-    <t>('X1', 'X4', 'X5')</t>
-  </si>
-  <si>
-    <t>('X2', 'X3', 'X4')</t>
-  </si>
-  <si>
-    <t>('X2', 'X3', 'X5')</t>
-  </si>
-  <si>
-    <t>('X2', 'X4', 'X5')</t>
-  </si>
-  <si>
-    <t>('X3', 'X4', 'X5')</t>
-  </si>
-  <si>
-    <t>('X1', 'X2', 'X3', 'X4')</t>
-  </si>
-  <si>
-    <t>('X1', 'X2', 'X3', 'X5')</t>
-  </si>
-  <si>
-    <t>('X1', 'X2', 'X4', 'X5')</t>
-  </si>
-  <si>
-    <t>('X1', 'X3', 'X4', 'X5')</t>
-  </si>
-  <si>
-    <t>('X2', 'X3', 'X4', 'X5')</t>
-  </si>
-  <si>
-    <t>('X1', 'X2', 'X3', 'X4', 'X5')</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +59,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -183,32 +76,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,7 +390,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,273 +538,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0.33362522560899999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.74832534336400003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.23200598889999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.75303518617599996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.68626644174400009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.60348316554935377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.44746649883036999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0.66058464009378737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0.92600999593511069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0.73755483316129533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.80641005398588339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.90491682180240085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.8395883675214767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.60685264506876946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>0.89015513403025892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>0.66046553240644668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>0.71914684295794362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>0.897657590393244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>0.75032948877062722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>0.79992434775022514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>0.92334650283267017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>0.86601337031636727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>0.84383085216113196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>0.92122432878311056</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>0.88040560628192455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>0.78659283108576039</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>0.85308252609205804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>0.90133588178682422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
-        <v>0.90166860813576766</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31">
-        <v>0.92133583254947049</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>0.90248905050312</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>